--- a/biology/Botanique/Ptininae/Ptininae.xlsx
+++ b/biology/Botanique/Ptininae/Ptininae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ptininae sont une sous-famille de quelque 500 espèces de Coléoptères. Ils présentent un corps rond, dépourvu d'ailes et de longues pattes minces. Ils sont généralement longs de 1 à 5 mm. Les larves et les adultes sont des charognards. Ils se reproduisent au taux de deux à trois générations par an. Ils sont parfois considérés comme une famille à part entière[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ptininae sont une sous-famille de quelque 500 espèces de Coléoptères. Ils présentent un corps rond, dépourvu d'ailes et de longues pattes minces. Ils sont généralement longs de 1 à 5 mm. Les larves et les adultes sont des charognards. Ils se reproduisent au taux de deux à trois générations par an. Ils sont parfois considérés comme une famille à part entière.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des sous-familles, genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (27 août 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (27 août 2014) :
 genre Actenobius
 genre Anobiopsis
 genre Anobium
@@ -574,7 +588,7 @@
 genre Xyletinus
 genre Xyletobius
 genre Xyletomerus
-Selon ITIS      (27 août 2014)[3] :
+Selon ITIS      (27 août 2014) :
 sous-famille Alvarenganiellinae Viana &amp; Martinez, 1971
 sous-famille Anobiinae Fleming, 1821
 sous-famille Dorcatominae C. G. Thomson, 1859
